--- a/test-data/testData.xlsx
+++ b/test-data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HybridFramework\HybridFramework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9538E43-303D-4A19-A482-498C814AEDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3832BA19-E0AA-4EDD-BCA8-9029496CEA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
   </bookViews>
@@ -36,12 +36,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>usertype</t>
+  </si>
+  <si>
+    <t>userrole</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t> rahulshettyacademy</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>rahul@shetty</t>
+  </si>
+  <si>
+    <t>lear#@ing</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,13 +127,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,14 +457,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D99DF5A-14D1-47AF-B0E7-F58C73B15F07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{E997A326-C325-4D4D-984E-29839D0FF56C}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{3633C354-1BDB-407B-8188-E07EB52DD6B9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/test-data/testData.xlsx
+++ b/test-data/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HybridFramework\HybridFramework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3832BA19-E0AA-4EDD-BCA8-9029496CEA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1611150A-D335-4754-BB2D-38F2307B92FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
+    <workbookView xWindow="3188" yWindow="2798" windowWidth="14400" windowHeight="7282" activeTab="1" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -76,6 +77,72 @@
   </si>
   <si>
     <t>lear#@ing</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>Jen</t>
+  </si>
+  <si>
+    <t>nikhil_9766_6ji0b@mailsac.com</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>sapna</t>
+  </si>
+  <si>
+    <t>jen</t>
+  </si>
+  <si>
+    <t>parak</t>
+  </si>
+  <si>
+    <t>cicir73431@cnguopin.com</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>kali</t>
+  </si>
+  <si>
+    <t>rocer86119@cerisun.com</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -131,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -142,6 +209,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D99DF5A-14D1-47AF-B0E7-F58C73B15F07}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +657,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3FDA8A-4A66-447B-9E4D-57FA8873CF47}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://mailsac.com/inbox/nikhil_9766_6ji0b%40mailsac.com" xr:uid="{EFE89987-12CB-40DD-B2E1-BEDE6BE63CC3}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{0CD09B16-0EE0-4935-A808-05A79EEF0353}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{38004649-999F-4DCB-9292-290494BCDEC7}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{FD587793-4B93-4F94-8470-8243BB280DC6}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{0719F7D5-A8BE-4C79-B218-E3A68C6DA509}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{3CA9BC81-9B96-4CEA-B7BC-E26ACC0C9342}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{E02285E0-2764-482C-84E1-8A960D6E5B7F}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{7218A918-A605-4800-8C32-F27D85B96FDF}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{389DC791-6115-4973-A439-1AED4215A9BD}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{6D30EF48-82E3-4F8D-B4CE-9750EFB4BD25}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+</worksheet>
 </file>
--- a/test-data/testData.xlsx
+++ b/test-data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HybridFramework\HybridFramework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1611150A-D335-4754-BB2D-38F2307B92FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2167EF-9552-4FDF-BB67-AEAA5CA919C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3188" yWindow="2798" windowWidth="14400" windowHeight="7282" activeTab="1" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>bocipes422@cerisun.com</t>
   </si>
 </sst>
 </file>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3FDA8A-4A66-447B-9E4D-57FA8873CF47}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -786,6 +792,29 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -801,8 +830,10 @@
     <hyperlink ref="D4" r:id="rId8" xr:uid="{7218A918-A605-4800-8C32-F27D85B96FDF}"/>
     <hyperlink ref="E5" r:id="rId9" xr:uid="{389DC791-6115-4973-A439-1AED4215A9BD}"/>
     <hyperlink ref="F5" r:id="rId10" xr:uid="{6D30EF48-82E3-4F8D-B4CE-9750EFB4BD25}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{26614538-9C59-438E-A2B7-222C09103819}"/>
+    <hyperlink ref="F6" r:id="rId12" xr:uid="{A543304C-3A6E-425F-8836-5FDF7B84C106}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/test-data/testData.xlsx
+++ b/test-data/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HybridFramework\HybridFramework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2167EF-9552-4FDF-BB67-AEAA5CA919C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5ADEAC-3029-4F97-9FE3-92A13FD0BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3188" yWindow="2798" windowWidth="14400" windowHeight="7282" activeTab="1" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="2" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterData" sheetId="2" r:id="rId2"/>
+    <sheet name="searchItem" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>username</t>
   </si>
@@ -149,13 +150,28 @@
   </si>
   <si>
     <t>bocipes422@cerisun.com</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Computing and Internet</t>
+  </si>
+  <si>
+    <t>Abc_xyz13 inch laptop</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>No_Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +198,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -216,6 +238,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -669,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3FDA8A-4A66-447B-9E4D-57FA8873CF47}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -836,4 +861,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4504CD85-FD8F-4A4B-B8A5-1F1C06F1FCFE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test-data/testData.xlsx
+++ b/test-data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HybridFramework\HybridFramework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5ADEAC-3029-4F97-9FE3-92A13FD0BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B77DA-A045-412D-A848-3A412B629D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="2" xr2:uid="{D0ED6061-E5DD-403A-88F5-76EEA8FB5438}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
-      <color rgb="FF6AAB73"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -868,7 +868,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
